--- a/Tables/time_offset.xlsx
+++ b/Tables/time_offset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysisMesytec/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B1EB6-34BC-9842-9F52-31510386AF5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58B59C-E0F8-5141-B81C-86FCEE1A69A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32180" yWindow="-6260" windowWidth="12160" windowHeight="19900" xr2:uid="{F35D2796-1BEB-5E42-BCAE-CE4898E752C0}"/>
+    <workbookView xWindow="8640" yWindow="3440" windowWidth="12160" windowHeight="19900" xr2:uid="{F35D2796-1BEB-5E42-BCAE-CE4898E752C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Energy (meV)</t>
   </si>
@@ -310,16 +310,47 @@
   </si>
   <si>
     <t>Van__3x3_High_Flux_Calibration_32.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_21.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_35.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_50.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_70.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_100.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_200.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_300.0</t>
+  </si>
+  <si>
+    <t>C4H2I2S_500.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,8 +376,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419FEDD-D03B-7348-A13E-D4AB14CE6692}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1329,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1377,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1385,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -1361,7 +1393,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1401,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1409,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1417,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1425,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1433,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -1409,12 +1441,100 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>24</v>
       </c>
       <c r="B93">
         <v>-16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>-9</v>
+      </c>
+      <c r="D94">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/time_offset.xlsx
+++ b/Tables/time_offset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58B59C-E0F8-5141-B81C-86FCEE1A69A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F2E41-0B75-9A47-8F45-024C1C40B6BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3440" windowWidth="12160" windowHeight="19900" xr2:uid="{F35D2796-1BEB-5E42-BCAE-CE4898E752C0}"/>
+    <workbookView xWindow="8640" yWindow="9680" windowWidth="12160" windowHeight="16620" xr2:uid="{F35D2796-1BEB-5E42-BCAE-CE4898E752C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D419FEDD-D03B-7348-A13E-D4AB14CE6692}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
